--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/WYOMING_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/WYOMING_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -407,13 +407,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="9">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="13">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C15">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="17">
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="19">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="20">
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="21">
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="23">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="24">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="29">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="31">
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="34">
@@ -861,13 +861,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C37">
@@ -893,7 +893,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C39">
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="42">
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="48">
@@ -1023,14 +1023,14 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="50">
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="55">
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="56">
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="57">
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="58">
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="60">
@@ -1228,7 +1228,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1285,7 +1285,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C68">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="75">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="78">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="80">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="82">
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="83">
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="84">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="86">
@@ -1544,33 +1544,33 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="90">
@@ -1602,8 +1602,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1628,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="94">
@@ -1647,14 +1646,14 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="96">
@@ -1667,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="97">
@@ -1680,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="98">
@@ -1693,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="99">
@@ -1706,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="100">
@@ -1719,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="101">
@@ -1732,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C102">
@@ -1758,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="104">
@@ -1810,13 +1809,13 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C108">
@@ -1836,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="110">
@@ -1873,7 +1872,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C112">
@@ -1912,7 +1911,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C115">
@@ -1932,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="117">
@@ -1984,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="121">
@@ -2010,20 +2009,20 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="124">
@@ -2042,7 +2041,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C125">
@@ -2086,7 +2085,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C128">
@@ -2106,33 +2105,33 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="132">
@@ -2145,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="133">
@@ -2158,33 +2157,33 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="136">
@@ -2223,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="139">
@@ -2236,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="140">
@@ -2249,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="141">
@@ -2262,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="142">
@@ -2293,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="144">
@@ -2306,20 +2305,20 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="146">
@@ -2332,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="147">
@@ -2345,46 +2344,46 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="151">
@@ -2397,20 +2396,20 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="153">
@@ -2454,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="156">
@@ -2480,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="158">
@@ -2499,14 +2498,14 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="160">
@@ -2519,13 +2518,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C161">
@@ -2571,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="165">
@@ -2584,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="166">
@@ -2597,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C167">
@@ -2623,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="169">
@@ -2636,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="170">
@@ -2649,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="171">
@@ -2662,33 +2661,33 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="174">
@@ -2714,13 +2713,13 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C176">
@@ -2740,26 +2739,26 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C179">
@@ -2792,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="182">
@@ -2805,13 +2804,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C183">
@@ -2831,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="185">
@@ -2850,14 +2849,14 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="187">
@@ -2901,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="190">
@@ -2927,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="192">
@@ -2940,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="193">
@@ -2953,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="194">
@@ -2966,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="195">
@@ -2979,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="196">
@@ -2992,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="197">
@@ -3018,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="199">
@@ -3044,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="201">
@@ -3057,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="202">
@@ -3122,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="207">
@@ -3135,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="208">
@@ -3187,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="212">
@@ -3231,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="215">
@@ -3244,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="216">
@@ -3257,26 +3256,26 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C218">
@@ -3320,14 +3319,14 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="222">
@@ -3340,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="223">
@@ -3353,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C224">
@@ -3379,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="226">
@@ -3449,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="231">
@@ -3473,14 +3472,14 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="233">
@@ -3493,13 +3492,13 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C234">
@@ -3512,27 +3511,27 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="237">
@@ -3545,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="238">
@@ -3558,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="239">
@@ -3571,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="240">
@@ -3584,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="241">
@@ -3610,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="243">
@@ -3623,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="244">
@@ -3636,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="245">
@@ -3662,33 +3661,33 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="249">
@@ -3719,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="251">
@@ -3732,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="252">
@@ -3745,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="253">
@@ -3784,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="256">
@@ -3797,20 +3796,20 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="258">
@@ -3829,14 +3828,14 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="260">
@@ -3849,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="261">
@@ -3901,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="265">
@@ -3927,20 +3926,20 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="268">
@@ -3959,14 +3958,14 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="270">
@@ -3979,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="271">
@@ -3992,20 +3991,20 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="273">
@@ -4057,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="277">
@@ -4083,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="279">
@@ -4096,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="280">
@@ -4120,33 +4119,33 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C283">
@@ -4166,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="285">
@@ -4190,14 +4189,14 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="287">
@@ -4210,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="288">
@@ -4236,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="290">
@@ -4249,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C291">
@@ -4275,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="293">
@@ -4288,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="294">
@@ -4332,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="297">
@@ -4358,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="299">
@@ -4384,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="301">
@@ -4423,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="304">
@@ -4436,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="305">
@@ -4480,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="308">
@@ -4493,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="309">
@@ -4506,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="310">
@@ -4519,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="311">
@@ -4551,14 +4550,14 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="314">
@@ -4571,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="315">
@@ -4633,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="319">
@@ -4646,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="320">
@@ -4659,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="321">
@@ -4672,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="D321">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="322">
@@ -4716,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="D324">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="325">
@@ -4774,7 +4773,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C329">
@@ -4787,7 +4786,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C330">
@@ -4833,13 +4832,13 @@
         <v>1</v>
       </c>
       <c r="D333">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C334">
@@ -4924,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="341">
@@ -4937,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="D341">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="342">
@@ -4981,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="D344">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="345">
@@ -4994,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="D345">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="346">
@@ -5007,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="347">
@@ -5033,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="D348">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="349">
@@ -5046,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="350">
@@ -5072,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="352">
@@ -5085,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="353">
@@ -5129,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="D355">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="356">
@@ -5142,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="D356">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="357">
@@ -5160,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="D357">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="358">
@@ -5212,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="D361">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="362">
@@ -5225,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="D362">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="363">
@@ -5238,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="D363">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="364">
@@ -5251,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="D364">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="365">
@@ -5264,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="D365">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="366">
@@ -5277,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="D366">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="367">
@@ -5296,20 +5295,20 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C368">
         <v>1</v>
       </c>
       <c r="D368">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C369">
@@ -5335,14 +5334,14 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
       <c r="D371">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="372">
@@ -5355,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="D372">
-        <v>0.0009082652134423251</v>
+        <v>0.0009082652134423252</v>
       </c>
     </row>
     <row r="373">
@@ -5408,41 +5407,6 @@
       </c>
       <c r="D376">
         <v>1</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/WYOMING_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/WYOMING_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tepezalá</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ascensión</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Balleza</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Coronado</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>El Tule</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -865,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -891,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Janos</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -943,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -956,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -969,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -982,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -995,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Satevó</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1143,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1156,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1169,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>General Simón Bolívar</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Indé</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -1574,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1587,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1657,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1670,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1683,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -1696,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1709,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1722,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -1735,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1748,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Hueypoxtla</t>
@@ -1761,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1774,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1787,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1800,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tianguistenco</t>
@@ -1813,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1826,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1839,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1870,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -1883,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1896,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -1909,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1922,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1935,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1948,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1961,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>León</t>
@@ -1974,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -1987,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2000,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2026,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2039,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2052,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2065,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2096,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2109,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2122,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2135,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -2148,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -2161,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2174,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -2187,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2200,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2213,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -2226,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2239,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2296,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -2335,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2348,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2444,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -2457,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -2470,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -2483,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Chimaltitán</t>
@@ -2496,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -2509,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -2522,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -2535,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -2548,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2561,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -2574,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -2587,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Jocotepec</t>
@@ -2600,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2613,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -2626,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -2639,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -2652,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -2665,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -2678,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -2691,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -2704,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -2717,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2730,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tapalpa</t>
@@ -2743,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -2756,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2769,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -2782,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -2795,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -2808,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2821,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -2834,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2847,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -2860,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2891,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -2904,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -2917,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -2930,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Cherán</t>
@@ -2943,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -2956,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -2969,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Ixtlán</t>
@@ -2982,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -2995,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -3008,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -3021,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3034,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -3047,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -3060,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -3073,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -3086,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -3099,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -3112,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -3125,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -3138,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -3151,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -3164,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3177,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -3190,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -3203,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3234,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -3247,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -3260,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -3273,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -3286,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3317,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -3330,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -3343,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -3356,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -3369,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -3382,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -3395,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -3408,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3439,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -3452,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3483,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Magdalena Jaltepec</t>
@@ -3496,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -3509,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3522,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -3535,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>San José Estancia Grande</t>
@@ -3548,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>San Mateo Piñas</t>
@@ -3561,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>San Pablo Cuatro Venados</t>
@@ -3574,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>San Pedro Comitancillo</t>
@@ -3587,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>San Pedro Mártir</t>
@@ -3600,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -3613,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -3626,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Santiago Amoltepec</t>
@@ -3639,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -3652,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -3665,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -3678,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -3691,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3722,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Amixtlán</t>
@@ -3735,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -3748,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -3761,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -3774,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Huatlatlauca</t>
@@ -3787,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -3800,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -3813,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -3826,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -3839,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Naupan</t>
@@ -3852,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3865,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -3878,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>San Miguel Xoxtla</t>
@@ -3891,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -3904,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -3917,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -3930,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -3943,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -3956,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -3969,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -3982,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -3995,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -4008,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -4021,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -4034,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -4047,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -4060,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -4073,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -4086,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -4099,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4130,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -4143,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -4156,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -4169,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4200,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -4213,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -4226,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -4239,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -4252,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -4265,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -4278,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -4291,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4322,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Angostura</t>
@@ -4335,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -4348,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -4361,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -4374,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -4387,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -4400,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -4413,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -4426,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -4439,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4470,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Altar</t>
@@ -4483,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Bavispe</t>
@@ -4496,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Caborca</t>
@@ -4509,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -4522,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -4535,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -4548,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -4561,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -4574,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4605,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4636,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -4649,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -4662,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -4675,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4706,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -4719,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -4732,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -4745,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -4758,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -4771,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -4784,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -4797,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -4810,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -4823,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>San Lucas Tecopilco</t>
@@ -4836,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizábal</t>
@@ -4849,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Tepeyanco</t>
@@ -4862,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -4875,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -4888,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -4901,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -4914,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -4927,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -4940,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4971,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -4984,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -4997,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -5010,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -5023,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -5036,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -5049,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -5062,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -5075,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -5088,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -5101,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5132,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5163,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -5176,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -5189,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -5202,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5215,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -5228,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -5241,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -5254,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -5267,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -5280,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -5293,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Teúl De González Ortega</t>
@@ -5306,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -5319,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -5332,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -5345,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -5358,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -5371,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -5384,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Total</t>
